--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cort-Sstr3.xlsx
@@ -534,13 +534,13 @@
         <v>0.217038</v>
       </c>
       <c r="H2">
-        <v>0.6511140000000001</v>
+        <v>0.651114</v>
       </c>
       <c r="I2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="J2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07964274521400001</v>
+        <v>0.079642745214</v>
       </c>
       <c r="R2">
-        <v>0.7167847069260002</v>
+        <v>0.7167847069259999</v>
       </c>
       <c r="S2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
       <c r="T2">
-        <v>0.7044942324899998</v>
+        <v>0.8572432933444277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09103833333333333</v>
+        <v>0.03614333333333333</v>
       </c>
       <c r="H3">
-        <v>0.273115</v>
+        <v>0.10843</v>
       </c>
       <c r="I3">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="J3">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03340678953166667</v>
+        <v>0.01326290459666667</v>
       </c>
       <c r="R3">
-        <v>0.300661105785</v>
+        <v>0.11936614137</v>
       </c>
       <c r="S3">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
       <c r="T3">
-        <v>0.2955057675100002</v>
+        <v>0.1427567066555723</v>
       </c>
     </row>
   </sheetData>
